--- a/Ewaa plus testing V1 31-08-2022.xlsx
+++ b/Ewaa plus testing V1 31-08-2022.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamran\Desktop\Ewaa discussion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\akar_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A9077C-005B-4268-A297-E25F0E7DBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2340" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="Ewaa plus test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Done</t>
   </si>
@@ -189,12 +188,42 @@
   <si>
     <t>Dashboard button for admin should be prominent on the side instead in between the tabs</t>
   </si>
+  <si>
+    <t>I don’t to make another login for admin I know after login who is login if user or admin</t>
+  </si>
+  <si>
+    <t>send email and you entered email message and presson link to make new password</t>
+  </si>
+  <si>
+    <t>should go to confirm payment if I created if I updated I go to my profile</t>
+  </si>
+  <si>
+    <t>tested and it works</t>
+  </si>
+  <si>
+    <t>seller when login go to dashboard seller</t>
+  </si>
+  <si>
+    <t>make it at last li</t>
+  </si>
+  <si>
+    <t>search input at search page drop down cant select from it</t>
+  </si>
+  <si>
+    <t>go to ads without parameters and check compunds number at this page</t>
+  </si>
+  <si>
+    <t>add input called country as select at search page</t>
+  </si>
+  <si>
+    <t>values updated automaticly</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +273,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -381,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,12 +496,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -466,6 +520,12 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,13 +538,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,7 +582,7 @@
         <xdr:cNvPr id="3" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +637,7 @@
         <xdr:cNvPr id="21" name="Shape 15" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,7 +692,7 @@
         <xdr:cNvPr id="4" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,7 +747,7 @@
         <xdr:cNvPr id="8" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -748,7 +802,7 @@
         <xdr:cNvPr id="9" name="Shape 15" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,7 +857,7 @@
         <xdr:cNvPr id="10" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,7 +912,7 @@
         <xdr:cNvPr id="11" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +967,7 @@
         <xdr:cNvPr id="12" name="Shape 15" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +1022,7 @@
         <xdr:cNvPr id="13" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1077,7 @@
         <xdr:cNvPr id="14" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1132,7 @@
         <xdr:cNvPr id="15" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1187,7 @@
         <xdr:cNvPr id="16" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1242,7 @@
         <xdr:cNvPr id="17" name="Shape 3" descr="blob:https://web.whatsapp.com/dbb0d869-9d65-49c8-a34d-a577396b5d48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1302,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C2CFDD-A8FE-203D-B5C9-40C61A99790A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C2CFDD-A8FE-203D-B5C9-40C61A99790A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,14 +1339,14 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1618483</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741B070D-3ABE-EEE8-E7B2-32922E864A3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741B070D-3ABE-EEE8-E7B2-32922E864A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1390,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5170DF-31B3-7191-81D0-C1CD64B5D616}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5170DF-31B3-7191-81D0-C1CD64B5D616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,40 +1616,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.109375" customWidth="1"/>
     <col min="7" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1615,7 +1669,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1635,7 +1689,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1655,37 +1709,37 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
@@ -1711,11 +1765,11 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+    <row r="10" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
         <v>1</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1735,10 +1789,10 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="6"/>
@@ -1755,9 +1809,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="24"/>
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1775,9 +1829,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1795,9 +1849,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1815,9 +1869,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1835,9 +1889,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
@@ -1855,9 +1909,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1929,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="17"/>
       <c r="C18" s="6"/>
@@ -1893,11 +1947,11 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -1917,13 +1971,15 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="14" t="s">
+    <row r="20" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
@@ -1937,9 +1993,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="24"/>
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="7"/>
@@ -1955,7 +2011,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="17"/>
       <c r="C22" s="6"/>
@@ -1973,11 +2029,11 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
         <v>3</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -1997,10 +2053,10 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="14" t="s">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="14"/>
@@ -2017,10 +2073,10 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="14" t="s">
+    <row r="25" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="14"/>
@@ -2037,13 +2093,15 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="14" t="s">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
@@ -2057,7 +2115,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="17"/>
       <c r="C27" s="6"/>
@@ -2075,18 +2133,22 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+    <row r="28" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
         <v>4</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2099,14 +2161,16 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="24"/>
+    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2119,9 +2183,9 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="24"/>
+    <row r="30" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="7"/>
@@ -2137,7 +2201,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="17"/>
       <c r="C31" s="6"/>
@@ -2155,11 +2219,11 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>5</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -2179,13 +2243,15 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E33" s="15"/>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
@@ -2199,7 +2265,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -2217,18 +2283,20 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+    <row r="35" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
         <v>6</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2241,14 +2309,16 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="25"/>
+    <row r="36" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2261,14 +2331,16 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="25"/>
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2281,7 +2353,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
@@ -2299,11 +2371,11 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+    <row r="39" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
         <v>7</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -2323,13 +2395,15 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="11" t="s">
+    <row r="40" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="2"/>
@@ -2343,13 +2417,15 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="11" t="s">
+    <row r="41" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="2"/>
@@ -2363,9 +2439,9 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="23"/>
+    <row r="42" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="26"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="11" t="s">
         <v>41</v>
       </c>
@@ -2383,7 +2459,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="22"/>
       <c r="C43" s="11"/>
@@ -2401,7 +2477,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="22" t="s">
         <v>23</v>
@@ -2423,7 +2499,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="22"/>
       <c r="C45" s="11"/>
@@ -2441,7 +2517,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="16"/>
       <c r="C46" s="11"/>
@@ -2459,493 +2535,493 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A6:F6"/>
